--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1733.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1733.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.5223897374547011</v>
+        <v>0.9991625547409058</v>
       </c>
       <c r="B1">
-        <v>1.24653876582517</v>
+        <v>1.482583284378052</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.434317813177844</v>
+        <v>1.743406891822815</v>
       </c>
       <c r="E1">
-        <v>1.63478568453891</v>
+        <v>1.043423652648926</v>
       </c>
     </row>
   </sheetData>
